--- a/취업정보뽀개기RPA/DWAVJobKorea/Result/물리채용정보20220228.xlsx
+++ b/취업정보뽀개기RPA/DWAVJobKorea/Result/물리채용정보20220228.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4dfd64622e41b/바탕 화면/새 폴더/취업정보뽀개기RPA/DWAVJobKorea/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4dfd64622e41b/바탕 화면/DWAVRPA/DWAVRPA/DWAVRPA/취업정보뽀개기RPA/DWAVJobKorea/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{EE8CC0CA-9652-4631-B45A-27D44D88FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2549B9-13D7-4F08-8600-B3036B83CC82}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="6_{C1A010D7-49A4-4095-B6EF-6D7AE62017F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C52F882-1D3E-4968-A0ED-5E55BDDA8604}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{8F6D89D7-5A9B-4BDA-B1BA-3B79AD25D264}"/>
+    <workbookView xWindow="-25290" yWindow="4785" windowWidth="21600" windowHeight="11385" xr2:uid="{8F6D89D7-5A9B-4BDA-B1BA-3B79AD25D264}"/>
   </bookViews>
   <sheets>
     <sheet name="사람인" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,18 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매그나칩반도체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[매그나칩반도체] 산업(물리)보안 경력사원 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력4년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대졸↑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충북 청주시 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리보안, 산업보안, 보안관리, 보안관제, 보안기술, 정보보안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,54 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메가스터디교육(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가스터디교육(주) [재택] 엘리하이 초등 관리교사 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위촉직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/08(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리, 고객안내, 고객응대, 공부방교사, 과외 외 수정일 22/02/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노형주과학전문학원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노형주과학전문학원 갈현동 물리학, 통합과학 강사 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 은평구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트·계약직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/21(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리, 파트강사, 학원강사, 수능강의, 입시학원 외 등록일 22/02/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리앤목 특허법인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +242,46 @@
   </si>
   <si>
     <t>특허법인, 특허사무소, 법률서비스, 변리사, 지적재산권, 특허출원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변리사 초빙 (물리/재료 전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대성수능연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[강남대성수능연구소] 기획실 신입/경력자 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/09(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리, 원고작성, 교육기획, 마케팅기획, 출판기획 외 수정일 22/02/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)창의와탐구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[급구] 초등 과학교사 신입/경력 모집 - 와이즈만 대치센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·위촉직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/24(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리, R&amp;D, 미생물, 생명과학, 세포배양 외 등록일 22/02/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +701,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -738,28 +710,28 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2">
         <v>2.4</v>
@@ -785,28 +757,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>2.4</v>
@@ -832,28 +804,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
       </c>
       <c r="I4">
         <v>2.4</v>
@@ -879,28 +851,28 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2.4</v>
@@ -926,28 +898,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I6">
         <v>3.3</v>
@@ -979,54 +951,54 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E097B49-F3EC-4012-BA92-E3D5E71D47C2}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1055,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1280,89 +1252,147 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
